--- a/HU Auxiliar.xlsx
+++ b/HU Auxiliar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSALAZAR.ASODATOS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E42F731-52E1-45B4-8423-7D5991163AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5199039F-76D9-4874-8148-450503AF2E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{8FB44BB8-537E-47A7-82D4-1C19E03810AC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>HU-01</t>
   </si>
@@ -50,6 +50,12 @@
     <t>HU-05</t>
   </si>
   <si>
+    <t>HU-06</t>
+  </si>
+  <si>
+    <t>HU-07</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Como </t>
     </r>
@@ -72,7 +78,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> del hospital, deseo registrar la informacion de un nuevo paciente para que quede oficialmente registrado en el programa de hospitalizacion en casa</t>
+      <t xml:space="preserve"> del hospital, quiero registrar la informacion de un nuevo paciente para que quede oficialmente registrado en el programa de hospitalizacion en casa</t>
     </r>
   </si>
   <si>
@@ -98,7 +104,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> del hospital, deseo registrar la informacion de un nuevo familiar designado para que quede oficialmente registrado en el programa de hospitalizacion en casa</t>
+      <t xml:space="preserve"> del hospital, quiero registrar la informacion de un nuevo familiar designado para que quede oficialmente registrado en el programa de hospitalizacion en casa</t>
     </r>
   </si>
   <si>
@@ -124,7 +130,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> del hospital, deseo registrar la informacion de un nuevo medico para que quede oficialmente registrado en el programa de hospitalizacion en casa</t>
+      <t xml:space="preserve"> del hospital, quiero registrar la informacion de un nuevo medico para que quede oficialmente registrado en el programa de hospitalizacion en casa</t>
     </r>
   </si>
   <si>
@@ -150,14 +156,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> del hospital, deseo registrar la informacion de un nuevo enfermero para que quede oficialmente registrado en el programa de hospitalizacion en casa</t>
-    </r>
-  </si>
-  <si>
-    <t>HU-06</t>
-  </si>
-  <si>
-    <t>HU-07</t>
+      <t xml:space="preserve"> del hospital, quiero registrar la informacion de un nuevo enfermero para que quede oficialmente registrado en el programa de hospitalizacion en casa</t>
+    </r>
   </si>
   <si>
     <r>
@@ -182,7 +182,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> del hospital, deseo consultar la informacion de un paciente para verificar los datos registrados en el programa hospitalizacion en casa y tener sus datos de contacto en caso de necesidad</t>
+      <t xml:space="preserve"> del hospital, quiero consultar la informacion de un paciente para verificar los datos registrados en el programa hospitalizacion en casa y tener sus datos de contacto en caso de necesidad</t>
     </r>
   </si>
   <si>
@@ -208,7 +208,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> del hospital, deseo asignar un enfermero a un paciente para que tenga una persona de la salud para su seguimiento</t>
+      <t xml:space="preserve"> del hospital, quiero asignar un enfermero a un paciente para que tenga una persona de la salud para su seguimiento</t>
     </r>
   </si>
   <si>
@@ -234,7 +234,94 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> del hospital, deseo asignar un medico a un paciente para que tenga un responsable de sus salud en el programa hospitalizacion en casa</t>
+      <t xml:space="preserve"> del hospital, quiero asignar un medico a un paciente para que tenga un responsable de sus salud en el programa hospitalizacion en casa</t>
+    </r>
+  </si>
+  <si>
+    <t>HU-08</t>
+  </si>
+  <si>
+    <t>HU-09</t>
+  </si>
+  <si>
+    <t>HU-10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PACIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del programa Hospitalizacion en Casa, quiero registrar mis signos vitales para que sirvan como referencia para mi cuidado en casa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PACIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del programa Hospitalizacion en Casa, quiero actualizar mis datos personales para mantener al dia mis datos demograficos en caso de ser necesario.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PACIENTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del programa Hospitalizacion en Casa, quiero consultar mi historia clinica para verificar los datos registrados en el programa.</t>
     </r>
   </si>
 </sst>
@@ -268,12 +355,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,12 +381,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E7E82C-CB1C-4B44-A54F-157F176C721B}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -635,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -643,7 +739,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -651,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -664,7 +760,7 @@
     </row>
     <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -672,25 +768,49 @@
     </row>
     <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
